--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE7B56-1A57-45E1-93B8-508E9D598858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{21DE7B56-1A57-45E1-93B8-508E9D598858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5128E552-8FD4-44E0-84EF-143A9671DB0E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
   <si>
     <t>Task</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Nhập các thông tin về thông tin nhân viên bằng giao diện, và lưu lên CSDL</t>
   </si>
   <si>
-    <t>SI_6</t>
-  </si>
-  <si>
     <t>SI_7</t>
   </si>
   <si>
@@ -280,19 +277,40 @@
     <t>SI_10</t>
   </si>
   <si>
-    <t>SI_11</t>
-  </si>
-  <si>
     <t>Thực hiện order món</t>
   </si>
   <si>
-    <t>Hiển thị danh sách hóa đơn</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách bill, và chi tiết những sản phẩm có trong hóa đơn</t>
-  </si>
-  <si>
     <t>Thêm,sửa sản phẩm vào hóa đơn</t>
+  </si>
+  <si>
+    <t>Tính toán doanh thu theo ngày tháng năm.</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách bàn đang có khách</t>
+  </si>
+  <si>
+    <t>Hiển thị số lượng bàn, hóa đơn của bàn đó và trạng thái đã thanh toán hay chưa</t>
+  </si>
+  <si>
+    <t>Thêm, sửa, xóa thông tin bàn</t>
+  </si>
+  <si>
+    <t>Thêm sửa xóa thông tin bàn, trạng thái hóa đơn đi theo bàn đó.</t>
+  </si>
+  <si>
+    <t>hiển</t>
+  </si>
+  <si>
+    <t>hùng</t>
+  </si>
+  <si>
+    <t>Tính doanh thu, và hiển thị danh sách hóa đơn</t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>huy</t>
   </si>
 </sst>
 </file>
@@ -302,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,8 +397,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -615,6 +646,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -624,6 +691,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -663,44 +739,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1078,84 +1118,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="77" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="8.88671875" style="62"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:11" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="34" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="56" t="s">
+    <row r="4" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1164,14 +1205,14 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="E4" s="50"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+    </row>
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>68</v>
       </c>
@@ -1187,7 +1228,7 @@
       <c r="E5" s="21">
         <v>1</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="32">
         <v>1</v>
       </c>
       <c r="G5" s="22" t="s">
@@ -1195,11 +1236,14 @@
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="K5" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>67</v>
       </c>
@@ -1215,19 +1259,22 @@
       <c r="E6" s="21">
         <v>1</v>
       </c>
-      <c r="F6" s="51">
-        <v>1</v>
+      <c r="F6" s="32">
+        <v>2</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" s="52" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="K6" s="62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>66</v>
       </c>
@@ -1241,21 +1288,24 @@
         <v>74</v>
       </c>
       <c r="E7" s="21">
+        <v>2</v>
+      </c>
+      <c r="F7" s="32">
         <v>1</v>
       </c>
-      <c r="F7" s="51">
-        <v>1</v>
-      </c>
       <c r="G7" s="22" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K7" s="62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>65</v>
       </c>
@@ -1271,7 +1321,7 @@
       <c r="E8" s="21">
         <v>1</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="32">
         <v>2</v>
       </c>
       <c r="G8" s="22" t="s">
@@ -1282,8 +1332,11 @@
         <v>40</v>
       </c>
       <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K8" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>64</v>
       </c>
@@ -1297,10 +1350,10 @@
         <v>80</v>
       </c>
       <c r="E9" s="21">
+        <v>2</v>
+      </c>
+      <c r="F9" s="32">
         <v>1</v>
-      </c>
-      <c r="F9" s="51">
-        <v>3</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>11</v>
@@ -1310,121 +1363,164 @@
         <v>40</v>
       </c>
       <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" s="52" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="K9" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="C10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="41">
+        <v>1</v>
+      </c>
+      <c r="F10" s="42">
+        <v>2</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="16"/>
       <c r="I10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="41">
+        <v>1</v>
+      </c>
+      <c r="F11" s="42">
+        <v>3</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K11" s="62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="41">
+        <v>1</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="41">
+        <v>2</v>
+      </c>
+      <c r="F13" s="42">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>85</v>
-      </c>
+      <c r="K13" s="62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="59"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>86</v>
-      </c>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="59"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="59"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -1432,11 +1528,11 @@
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="59"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1444,11 +1540,11 @@
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="59"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -1456,28 +1552,16 @@
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="59"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1519,16 +1603,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1725,45 +1809,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:132" ht="31.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="11"/>
     </row>
     <row r="3" spans="1:132" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="44" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="3"/>
@@ -1890,8 +1974,8 @@
       <c r="EB3" s="3"/>
     </row>
     <row r="4" spans="1:132" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1901,11 +1985,11 @@
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -2030,13 +2114,13 @@
       <c r="EB4" s="3"/>
     </row>
     <row r="5" spans="1:132" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="55" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -2180,9 +2264,9 @@
       <c r="EB5" s="3"/>
     </row>
     <row r="6" spans="1:132" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="17" t="s">
         <v>29</v>
       </c>
@@ -2324,9 +2408,9 @@
       <c r="EB6" s="3"/>
     </row>
     <row r="7" spans="1:132" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="41"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="17" t="s">
         <v>71</v>
       </c>
@@ -2468,13 +2552,13 @@
       <c r="EB7" s="3"/>
     </row>
     <row r="8" spans="1:132" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="55" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -2618,9 +2702,9 @@
       <c r="EB8" s="3"/>
     </row>
     <row r="9" spans="1:132" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="17" t="s">
         <v>22</v>
       </c>
@@ -2762,13 +2846,13 @@
       <c r="EB9" s="3"/>
     </row>
     <row r="10" spans="1:132" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="55" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -2912,9 +2996,9 @@
       <c r="EB10" s="3"/>
     </row>
     <row r="11" spans="1:132" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="17" t="s">
         <v>71</v>
       </c>
@@ -3056,9 +3140,9 @@
       <c r="EB11" s="3"/>
     </row>
     <row r="12" spans="1:132" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="41"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="17" t="s">
         <v>49</v>
       </c>
@@ -3200,13 +3284,13 @@
       <c r="EB12" s="3"/>
     </row>
     <row r="13" spans="1:132" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="55" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -3350,9 +3434,9 @@
       <c r="EB13" s="3"/>
     </row>
     <row r="14" spans="1:132" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="17" t="s">
         <v>59</v>
       </c>
@@ -3494,9 +3578,9 @@
       <c r="EB14" s="3"/>
     </row>
     <row r="15" spans="1:132" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="41"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="17" t="s">
         <v>52</v>
       </c>
@@ -3638,13 +3722,13 @@
       <c r="EB15" s="3"/>
     </row>
     <row r="16" spans="1:132" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="55" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -3788,9 +3872,9 @@
       <c r="EB16" s="3"/>
     </row>
     <row r="17" spans="1:132" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="17" t="s">
         <v>71</v>
       </c>
